--- a/MON32/doc/MON32标定模板_20200910.xlsx
+++ b/MON32/doc/MON32标定模板_20200910.xlsx
@@ -99,9 +99,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,15 +112,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,23 +149,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,6 +172,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -188,18 +233,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,43 +255,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -271,13 +271,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,19 +355,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,19 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,13 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,43 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,25 +415,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,13 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,11 +480,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,32 +534,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,24 +562,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,145 +570,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,8 +1075,8 @@
   <sheetPr/>
   <dimension ref="A1:U208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="J201" sqref="J201"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90:E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1229,10 +1229,10 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1249,10 +1249,10 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1269,10 +1269,10 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1289,10 +1289,10 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1309,10 +1309,10 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1329,10 +1329,10 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1349,10 +1349,10 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1369,10 +1369,10 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1389,10 +1389,10 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1409,10 +1409,10 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1429,10 +1429,10 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1449,10 +1449,10 @@
         <v>6</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1469,10 +1469,10 @@
         <v>7</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1489,10 +1489,10 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1509,10 +1509,10 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1529,10 +1529,10 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1549,10 +1549,10 @@
         <v>11</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1569,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1589,10 +1589,10 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1609,10 +1609,10 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1629,10 +1629,10 @@
         <v>4</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1649,10 +1649,10 @@
         <v>5</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1669,10 +1669,10 @@
         <v>6</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1689,10 +1689,10 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1709,10 +1709,10 @@
         <v>8</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1729,10 +1729,10 @@
         <v>9</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1749,10 +1749,10 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1769,10 +1769,10 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1789,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1809,10 +1809,10 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1829,10 +1829,10 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1849,10 +1849,10 @@
         <v>4</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1869,10 +1869,10 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1889,10 +1889,10 @@
         <v>6</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1909,10 +1909,10 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1929,10 +1929,10 @@
         <v>8</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1949,10 +1949,10 @@
         <v>9</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1969,10 +1969,10 @@
         <v>10</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1989,10 +1989,10 @@
         <v>11</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2009,10 +2009,10 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2029,10 +2029,10 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2049,10 +2049,10 @@
         <v>3</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2069,10 +2069,10 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2089,10 +2089,10 @@
         <v>2</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2109,10 +2109,10 @@
         <v>3</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2129,10 +2129,10 @@
         <v>4</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2149,10 +2149,10 @@
         <v>5</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2169,10 +2169,10 @@
         <v>6</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2189,10 +2189,10 @@
         <v>7</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2209,10 +2209,10 @@
         <v>8</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2229,10 +2229,10 @@
         <v>9</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-4200</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2249,10 +2249,10 @@
         <v>10</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>-4600</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2269,10 +2269,10 @@
         <v>11</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2289,10 +2289,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2309,10 +2309,10 @@
         <v>2</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>-900</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2329,10 +2329,10 @@
         <v>3</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>-1300</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2349,10 +2349,10 @@
         <v>4</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>-1700</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2369,10 +2369,10 @@
         <v>5</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>-2100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2389,10 +2389,10 @@
         <v>6</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>-4200</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>-2500</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2409,10 +2409,10 @@
         <v>7</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>-4600</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>-2900</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2429,10 +2429,10 @@
         <v>8</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>-3300</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2449,10 +2449,10 @@
         <v>9</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>-5400</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>-3700</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2469,10 +2469,10 @@
         <v>10</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>-5800</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>-4100</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2489,10 +2489,10 @@
         <v>11</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>-6200</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>-4500</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2509,10 +2509,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>-2900</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2529,10 +2529,10 @@
         <v>2</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>-3300</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2549,10 +2549,10 @@
         <v>3</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>-3700</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2569,10 +2569,10 @@
         <v>4</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>-4100</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2589,10 +2589,10 @@
         <v>5</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-4500</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2609,10 +2609,10 @@
         <v>6</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>-4900</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2629,10 +2629,10 @@
         <v>7</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>-5300</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2649,10 +2649,10 @@
         <v>8</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>-5700</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>-2100</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2669,10 +2669,10 @@
         <v>9</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>-6100</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>-2500</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2689,10 +2689,10 @@
         <v>10</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>-6500</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>-2900</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2709,10 +2709,10 @@
         <v>11</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>-6900</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>-3300</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2729,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-1.11</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2746,7 +2746,7 @@
         <v>2</v>
       </c>
       <c r="E91">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2763,7 +2763,7 @@
         <v>3</v>
       </c>
       <c r="E92">
-        <v>3.11</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2780,7 +2780,7 @@
         <v>4</v>
       </c>
       <c r="E93">
-        <v>4.11</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2797,7 +2797,7 @@
         <v>5</v>
       </c>
       <c r="E94">
-        <v>5.11</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2814,7 +2814,7 @@
         <v>6</v>
       </c>
       <c r="E95">
-        <v>6.11</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2831,7 +2831,7 @@
         <v>7</v>
       </c>
       <c r="E96">
-        <v>7.11</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2848,7 +2848,7 @@
         <v>8</v>
       </c>
       <c r="E97">
-        <v>8.11</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2865,7 +2865,7 @@
         <v>9</v>
       </c>
       <c r="E98">
-        <v>9.11</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2882,7 +2882,7 @@
         <v>10</v>
       </c>
       <c r="E99">
-        <v>10.11</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2899,7 +2899,7 @@
         <v>11</v>
       </c>
       <c r="E100">
-        <v>11.11</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2916,7 +2916,7 @@
         <v>12</v>
       </c>
       <c r="E101">
-        <v>12.11</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2933,7 +2933,7 @@
         <v>13</v>
       </c>
       <c r="E102">
-        <v>13.11</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2950,7 +2950,7 @@
         <v>14</v>
       </c>
       <c r="E103">
-        <v>14.11</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2967,7 +2967,7 @@
         <v>15</v>
       </c>
       <c r="E104">
-        <v>15.11</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2984,7 +2984,7 @@
         <v>16</v>
       </c>
       <c r="E105">
-        <v>16.11</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3001,7 +3001,7 @@
         <v>17</v>
       </c>
       <c r="E106">
-        <v>17.11</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3018,7 +3018,7 @@
         <v>18</v>
       </c>
       <c r="E107">
-        <v>18.11</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3035,7 +3035,7 @@
         <v>19</v>
       </c>
       <c r="E108">
-        <v>19.11</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3052,7 +3052,7 @@
         <v>20</v>
       </c>
       <c r="E109">
-        <v>20.11</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3069,7 +3069,7 @@
         <v>21</v>
       </c>
       <c r="E110">
-        <v>21.11</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3086,7 +3086,7 @@
         <v>22</v>
       </c>
       <c r="E111">
-        <v>22.11</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3103,7 +3103,7 @@
         <v>23</v>
       </c>
       <c r="E112">
-        <v>23.11</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3120,7 +3120,7 @@
         <v>24</v>
       </c>
       <c r="E113">
-        <v>24.11</v>
+        <v>2.34000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3137,7 +3137,7 @@
         <v>25</v>
       </c>
       <c r="E114">
-        <v>25.11</v>
+        <v>2.35000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3154,7 +3154,7 @@
         <v>26</v>
       </c>
       <c r="E115">
-        <v>26.11</v>
+        <v>2.36000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3171,7 +3171,7 @@
         <v>27</v>
       </c>
       <c r="E116">
-        <v>27.11</v>
+        <v>2.37000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3188,7 +3188,7 @@
         <v>28</v>
       </c>
       <c r="E117">
-        <v>28.11</v>
+        <v>2.38000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3205,7 +3205,7 @@
         <v>29</v>
       </c>
       <c r="E118">
-        <v>29.11</v>
+        <v>2.39000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3222,7 +3222,7 @@
         <v>30</v>
       </c>
       <c r="E119">
-        <v>30.11</v>
+        <v>2.40000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3239,7 +3239,7 @@
         <v>31</v>
       </c>
       <c r="E120">
-        <v>31.11</v>
+        <v>2.41000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3256,7 +3256,7 @@
         <v>32</v>
       </c>
       <c r="E121">
-        <v>32.11</v>
+        <v>2.42000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3273,7 +3273,7 @@
         <v>33</v>
       </c>
       <c r="E122">
-        <v>33.11</v>
+        <v>2.43000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3290,7 +3290,7 @@
         <v>34</v>
       </c>
       <c r="E123">
-        <v>34.11</v>
+        <v>2.44000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3307,7 +3307,7 @@
         <v>35</v>
       </c>
       <c r="E124">
-        <v>35.11</v>
+        <v>2.45000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3324,7 +3324,7 @@
         <v>36</v>
       </c>
       <c r="E125">
-        <v>36.11</v>
+        <v>2.46000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3341,7 +3341,7 @@
         <v>37</v>
       </c>
       <c r="E126">
-        <v>37.11</v>
+        <v>2.47000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3358,7 +3358,7 @@
         <v>38</v>
       </c>
       <c r="E127">
-        <v>38.11</v>
+        <v>2.48000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3375,7 +3375,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>39.11</v>
+        <v>2.49000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3392,7 +3392,7 @@
         <v>40</v>
       </c>
       <c r="E129">
-        <v>40.11</v>
+        <v>2.50000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3409,7 +3409,7 @@
         <v>41</v>
       </c>
       <c r="E130">
-        <v>41.11</v>
+        <v>2.51000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3426,7 +3426,7 @@
         <v>42</v>
       </c>
       <c r="E131">
-        <v>42.11</v>
+        <v>2.52000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3443,7 +3443,7 @@
         <v>43</v>
       </c>
       <c r="E132">
-        <v>43.11</v>
+        <v>2.53000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3460,7 +3460,7 @@
         <v>44</v>
       </c>
       <c r="E133">
-        <v>44.11</v>
+        <v>2.54000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3477,7 +3477,7 @@
         <v>45</v>
       </c>
       <c r="E134">
-        <v>45.11</v>
+        <v>2.55000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3494,7 +3494,7 @@
         <v>46</v>
       </c>
       <c r="E135">
-        <v>46.11</v>
+        <v>2.56000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3511,7 +3511,7 @@
         <v>47</v>
       </c>
       <c r="E136">
-        <v>47.11</v>
+        <v>2.57000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3528,7 +3528,7 @@
         <v>48</v>
       </c>
       <c r="E137">
-        <v>48.11</v>
+        <v>2.58000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3545,7 +3545,7 @@
         <v>49</v>
       </c>
       <c r="E138">
-        <v>49.11</v>
+        <v>2.59000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3562,7 +3562,7 @@
         <v>50</v>
       </c>
       <c r="E139">
-        <v>50.11</v>
+        <v>2.60000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3579,7 +3579,7 @@
         <v>51</v>
       </c>
       <c r="E140">
-        <v>51.11</v>
+        <v>2.61000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3596,7 +3596,7 @@
         <v>52</v>
       </c>
       <c r="E141">
-        <v>52.11</v>
+        <v>2.62000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3613,7 +3613,7 @@
         <v>53</v>
       </c>
       <c r="E142">
-        <v>53.11</v>
+        <v>2.63000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3630,7 +3630,7 @@
         <v>54</v>
       </c>
       <c r="E143">
-        <v>54.11</v>
+        <v>2.64000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3647,7 +3647,7 @@
         <v>55</v>
       </c>
       <c r="E144">
-        <v>55.11</v>
+        <v>2.65000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3664,7 +3664,7 @@
         <v>56</v>
       </c>
       <c r="E145">
-        <v>56.11</v>
+        <v>2.66000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3681,7 +3681,7 @@
         <v>57</v>
       </c>
       <c r="E146">
-        <v>57.11</v>
+        <v>2.67000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3698,7 +3698,7 @@
         <v>58</v>
       </c>
       <c r="E147">
-        <v>58.11</v>
+        <v>2.68000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3715,7 +3715,7 @@
         <v>59</v>
       </c>
       <c r="E148">
-        <v>59.11</v>
+        <v>2.69000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3732,7 +3732,7 @@
         <v>60</v>
       </c>
       <c r="E149">
-        <v>60.11</v>
+        <v>2.70000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3749,7 +3749,7 @@
         <v>61</v>
       </c>
       <c r="E150">
-        <v>61.11</v>
+        <v>2.71000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3766,7 +3766,7 @@
         <v>62</v>
       </c>
       <c r="E151">
-        <v>62.11</v>
+        <v>2.72000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3783,7 +3783,7 @@
         <v>63</v>
       </c>
       <c r="E152">
-        <v>63.11</v>
+        <v>2.73000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3800,7 +3800,7 @@
         <v>64</v>
       </c>
       <c r="E153">
-        <v>64.11</v>
+        <v>2.74000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3817,7 +3817,7 @@
         <v>65</v>
       </c>
       <c r="E154">
-        <v>65.11</v>
+        <v>2.75000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3834,7 +3834,7 @@
         <v>66</v>
       </c>
       <c r="E155">
-        <v>66.11</v>
+        <v>2.76000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3851,7 +3851,7 @@
         <v>67</v>
       </c>
       <c r="E156">
-        <v>67.11</v>
+        <v>2.77000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3868,7 +3868,7 @@
         <v>68</v>
       </c>
       <c r="E157">
-        <v>68.11</v>
+        <v>2.78000000000002</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3885,7 +3885,7 @@
         <v>69</v>
       </c>
       <c r="E158">
-        <v>69.11</v>
+        <v>2.79000000000002</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3902,7 +3902,7 @@
         <v>70</v>
       </c>
       <c r="E159">
-        <v>70.11</v>
+        <v>2.80000000000002</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3919,7 +3919,7 @@
         <v>71</v>
       </c>
       <c r="E160">
-        <v>71.11</v>
+        <v>2.81000000000002</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3936,7 +3936,7 @@
         <v>72</v>
       </c>
       <c r="E161">
-        <v>72.11</v>
+        <v>2.82000000000002</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3953,7 +3953,7 @@
         <v>73</v>
       </c>
       <c r="E162">
-        <v>73.11</v>
+        <v>2.83000000000002</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3970,7 +3970,7 @@
         <v>74</v>
       </c>
       <c r="E163">
-        <v>74.11</v>
+        <v>2.84000000000002</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3987,7 +3987,7 @@
         <v>75</v>
       </c>
       <c r="E164">
-        <v>75.11</v>
+        <v>2.85000000000002</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4004,7 +4004,7 @@
         <v>76</v>
       </c>
       <c r="E165">
-        <v>76.11</v>
+        <v>2.86000000000002</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4021,7 +4021,7 @@
         <v>77</v>
       </c>
       <c r="E166">
-        <v>77.11</v>
+        <v>2.87000000000002</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4038,7 +4038,7 @@
         <v>78</v>
       </c>
       <c r="E167">
-        <v>78.11</v>
+        <v>2.88000000000002</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4055,7 +4055,7 @@
         <v>79</v>
       </c>
       <c r="E168">
-        <v>79.11</v>
+        <v>2.89000000000002</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4072,7 +4072,7 @@
         <v>80</v>
       </c>
       <c r="E169">
-        <v>80.11</v>
+        <v>2.90000000000002</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4089,7 +4089,7 @@
         <v>81</v>
       </c>
       <c r="E170">
-        <v>81.11</v>
+        <v>2.91000000000002</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4106,7 +4106,7 @@
         <v>82</v>
       </c>
       <c r="E171">
-        <v>82.11</v>
+        <v>2.92000000000002</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4123,7 +4123,7 @@
         <v>83</v>
       </c>
       <c r="E172">
-        <v>83.11</v>
+        <v>2.93000000000002</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4140,7 +4140,7 @@
         <v>84</v>
       </c>
       <c r="E173">
-        <v>84.11</v>
+        <v>2.94000000000002</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4157,7 +4157,7 @@
         <v>85</v>
       </c>
       <c r="E174">
-        <v>85.11</v>
+        <v>2.95000000000002</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4174,7 +4174,7 @@
         <v>86</v>
       </c>
       <c r="E175">
-        <v>86.11</v>
+        <v>2.96000000000002</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4191,7 +4191,7 @@
         <v>87</v>
       </c>
       <c r="E176">
-        <v>87.11</v>
+        <v>2.97000000000002</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4208,7 +4208,7 @@
         <v>88</v>
       </c>
       <c r="E177">
-        <v>88.11</v>
+        <v>2.98000000000002</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4225,7 +4225,7 @@
         <v>89</v>
       </c>
       <c r="E178">
-        <v>89.11</v>
+        <v>2.99000000000002</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4242,7 +4242,7 @@
         <v>90</v>
       </c>
       <c r="E179">
-        <v>90.11</v>
+        <v>3.00000000000002</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4259,7 +4259,7 @@
         <v>91</v>
       </c>
       <c r="E180">
-        <v>91.11</v>
+        <v>3.01000000000002</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4276,7 +4276,7 @@
         <v>92</v>
       </c>
       <c r="E181">
-        <v>92.11</v>
+        <v>3.02000000000002</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4293,7 +4293,7 @@
         <v>93</v>
       </c>
       <c r="E182">
-        <v>93.11</v>
+        <v>3.03000000000002</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4310,7 +4310,7 @@
         <v>94</v>
       </c>
       <c r="E183">
-        <v>94.11</v>
+        <v>3.04000000000002</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4327,7 +4327,7 @@
         <v>95</v>
       </c>
       <c r="E184">
-        <v>95.11</v>
+        <v>3.05000000000002</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4344,7 +4344,7 @@
         <v>96</v>
       </c>
       <c r="E185">
-        <v>96.11</v>
+        <v>3.06000000000002</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4361,7 +4361,7 @@
         <v>97</v>
       </c>
       <c r="E186">
-        <v>12.34</v>
+        <v>3.07000000000002</v>
       </c>
     </row>
     <row r="188" spans="1:8">

--- a/MON32/doc/MON32标定模板_20200910.xlsx
+++ b/MON32/doc/MON32标定模板_20200910.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24940" windowHeight="10730"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="EEPROM写入模板" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="26">
   <si>
     <t>debug</t>
   </si>
@@ -87,6 +87,9 @@
     <t>il</t>
   </si>
   <si>
+    <t>v</t>
+  </si>
+  <si>
     <t>tosa</t>
   </si>
   <si>
@@ -98,9 +101,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -113,22 +116,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,31 +145,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,16 +176,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,16 +227,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,18 +244,18 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -271,7 +274,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,25 +352,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,37 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,103 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,36 +465,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,15 +479,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,11 +498,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,8 +1078,8 @@
   <sheetPr/>
   <dimension ref="A1:U208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90:E186"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4366,28 +4369,28 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B188" t="s">
         <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D188">
         <v>1</v>
       </c>
       <c r="E188">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="F188">
-        <v>2666</v>
+        <v>3785</v>
       </c>
       <c r="G188">
-        <v>1200</v>
+        <v>1435</v>
       </c>
       <c r="H188">
-        <v>-14.9</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -4398,22 +4401,22 @@
         <v>13</v>
       </c>
       <c r="C189" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D189">
         <v>2</v>
       </c>
       <c r="E189">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="F189">
-        <v>2635</v>
+        <v>3730</v>
       </c>
       <c r="G189">
-        <v>1428</v>
+        <v>1589</v>
       </c>
       <c r="H189">
-        <v>-7.4</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -4424,22 +4427,22 @@
         <v>13</v>
       </c>
       <c r="C190" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D190">
         <v>3</v>
       </c>
       <c r="E190">
-        <v>10000</v>
+        <v>21800</v>
       </c>
       <c r="F190">
-        <v>2610</v>
+        <v>3645</v>
       </c>
       <c r="G190">
-        <v>1520</v>
+        <v>1680</v>
       </c>
       <c r="H190">
-        <v>-4.7</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -4450,22 +4453,22 @@
         <v>13</v>
       </c>
       <c r="C191" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D191">
         <v>4</v>
       </c>
       <c r="E191">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="F191">
-        <v>2530</v>
+        <v>3550</v>
       </c>
       <c r="G191">
-        <v>1627</v>
+        <v>1743</v>
       </c>
       <c r="H191">
-        <v>-1.3</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -4476,22 +4479,22 @@
         <v>13</v>
       </c>
       <c r="C192" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D192">
         <v>5</v>
       </c>
       <c r="E192">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="F192">
-        <v>2450</v>
+        <v>3435</v>
       </c>
       <c r="G192">
-        <v>1698</v>
+        <v>1780</v>
       </c>
       <c r="H192">
-        <v>0.7</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -4502,22 +4505,22 @@
         <v>13</v>
       </c>
       <c r="C193" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D193">
         <v>6</v>
       </c>
       <c r="E193">
-        <v>25000</v>
+        <v>42000</v>
       </c>
       <c r="F193">
-        <v>2360</v>
+        <v>3305</v>
       </c>
       <c r="G193">
-        <v>1748</v>
+        <v>1816</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -4528,22 +4531,22 @@
         <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D194">
         <v>7</v>
       </c>
       <c r="E194">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>2258</v>
+        <v>0</v>
       </c>
       <c r="G194">
-        <v>1778</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -4554,22 +4557,22 @@
         <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D195">
         <v>8</v>
       </c>
       <c r="E195">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>2145</v>
+        <v>0</v>
       </c>
       <c r="G195">
-        <v>1805</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -4580,7 +4583,7 @@
         <v>13</v>
       </c>
       <c r="C196" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D196">
         <v>9</v>
@@ -4606,7 +4609,7 @@
         <v>13</v>
       </c>
       <c r="C197" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D197">
         <v>10</v>
@@ -4632,7 +4635,7 @@
         <v>13</v>
       </c>
       <c r="C199" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -4652,7 +4655,7 @@
         <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D200">
         <v>2</v>
@@ -4672,7 +4675,7 @@
         <v>13</v>
       </c>
       <c r="C201" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D201">
         <v>3</v>
@@ -4692,7 +4695,7 @@
         <v>13</v>
       </c>
       <c r="C202" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D202">
         <v>4</v>
@@ -4712,7 +4715,7 @@
         <v>13</v>
       </c>
       <c r="C203" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D203">
         <v>5</v>
@@ -4732,7 +4735,7 @@
         <v>13</v>
       </c>
       <c r="C204" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D204">
         <v>6</v>
@@ -4752,7 +4755,7 @@
         <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D205">
         <v>7</v>
@@ -4772,7 +4775,7 @@
         <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D206">
         <v>8</v>
@@ -4792,7 +4795,7 @@
         <v>13</v>
       </c>
       <c r="C207" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D207">
         <v>9</v>
@@ -4812,7 +4815,7 @@
         <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D208">
         <v>10</v>

--- a/MON32/doc/MON32标定模板_20200910.xlsx
+++ b/MON32/doc/MON32标定模板_20200910.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowWidth="24930" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="EEPROM写入模板" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="25">
   <si>
     <t>debug</t>
   </si>
@@ -87,9 +87,6 @@
     <t>il</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>tosa</t>
   </si>
   <si>
@@ -101,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,37 +113,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -161,11 +144,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,8 +158,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,8 +202,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,9 +226,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,38 +251,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,25 +271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,19 +283,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +319,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,115 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,6 +462,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,17 +504,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,39 +554,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -573,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,10 +582,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,121 +594,121 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,8 +1075,8 @@
   <sheetPr/>
   <dimension ref="A1:U208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="H192" sqref="H192"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4369,13 +4366,13 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
         <v>23</v>
-      </c>
-      <c r="B188" t="s">
-        <v>13</v>
-      </c>
-      <c r="C188" t="s">
-        <v>24</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -4401,7 +4398,7 @@
         <v>13</v>
       </c>
       <c r="C189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D189">
         <v>2</v>
@@ -4427,7 +4424,7 @@
         <v>13</v>
       </c>
       <c r="C190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D190">
         <v>3</v>
@@ -4453,7 +4450,7 @@
         <v>13</v>
       </c>
       <c r="C191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D191">
         <v>4</v>
@@ -4479,7 +4476,7 @@
         <v>13</v>
       </c>
       <c r="C192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D192">
         <v>5</v>
@@ -4505,7 +4502,7 @@
         <v>13</v>
       </c>
       <c r="C193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D193">
         <v>6</v>
@@ -4531,7 +4528,7 @@
         <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D194">
         <v>7</v>
@@ -4557,7 +4554,7 @@
         <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D195">
         <v>8</v>
@@ -4583,7 +4580,7 @@
         <v>13</v>
       </c>
       <c r="C196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D196">
         <v>9</v>
@@ -4609,7 +4606,7 @@
         <v>13</v>
       </c>
       <c r="C197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D197">
         <v>10</v>
@@ -4635,7 +4632,7 @@
         <v>13</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -4655,7 +4652,7 @@
         <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200">
         <v>2</v>
@@ -4675,7 +4672,7 @@
         <v>13</v>
       </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D201">
         <v>3</v>
@@ -4695,7 +4692,7 @@
         <v>13</v>
       </c>
       <c r="C202" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D202">
         <v>4</v>
@@ -4715,7 +4712,7 @@
         <v>13</v>
       </c>
       <c r="C203" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D203">
         <v>5</v>
@@ -4735,7 +4732,7 @@
         <v>13</v>
       </c>
       <c r="C204" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D204">
         <v>6</v>
@@ -4755,7 +4752,7 @@
         <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D205">
         <v>7</v>
@@ -4775,7 +4772,7 @@
         <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D206">
         <v>8</v>
@@ -4795,7 +4792,7 @@
         <v>13</v>
       </c>
       <c r="C207" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D207">
         <v>9</v>
@@ -4815,7 +4812,7 @@
         <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D208">
         <v>10</v>
